--- a/Alex datafiles/C1/Formated/October_2011.xlsx
+++ b/Alex datafiles/C1/Formated/October_2011.xlsx
@@ -2619,11 +2619,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Oct_2011LOC" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Mar_2011LOC" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Mar_2011LOC" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Oct_2011LOC" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2892,7 +2892,7 @@
   <dimension ref="A1:AN1802"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48055,8 +48055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LK1612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49047,7 +49047,7 @@
     </row>
     <row r="3" spans="1:323" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">IFERROR(HLOOKUP($A3,$F$2:$LJ$3,2,FALSE),"")</f>
+        <f>IFERROR(HLOOKUP($A3,$F$2:$LJ$3,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F3">
@@ -49920,7 +49920,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D66" si="0">IFERROR(HLOOKUP($A4,$F$2:$LJ$3,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
